--- a/carddata.xlsx
+++ b/carddata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Double Act\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442B9726-8A15-4B55-A5EA-181861DD2645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AAC07F-9310-44BE-96D5-93A17F91DADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="918">
   <si>
     <t>Actor1</t>
   </si>
@@ -2641,6 +2641,150 @@
   </si>
   <si>
     <t>The Avengers, Iron Man 3, Avengers: Age of Ultron, Thor: Ragnarok, Avengers: Infinity War, Avengers: End Game, Shang-Chi and the Legend of the Ten Rings, She-Hulk: Attorney at Law</t>
+  </si>
+  <si>
+    <t>Liv Tyler</t>
+  </si>
+  <si>
+    <t>Jennifer Connelly</t>
+  </si>
+  <si>
+    <t>Betty Ross</t>
+  </si>
+  <si>
+    <t>Thaddeus Ross</t>
+  </si>
+  <si>
+    <t>Sam Elliott</t>
+  </si>
+  <si>
+    <t>William Hurt</t>
+  </si>
+  <si>
+    <t>Harrison Ford</t>
+  </si>
+  <si>
+    <t>The Incredible Hulk, Captain America: Civil War, Avengers: Infinity War, Avengers: Endgame, Black Widow</t>
+  </si>
+  <si>
+    <t>Captain America: Brave New World</t>
+  </si>
+  <si>
+    <t>George Lazenby</t>
+  </si>
+  <si>
+    <t>Roger Moore</t>
+  </si>
+  <si>
+    <t>Timothy Dalton</t>
+  </si>
+  <si>
+    <t>Pierce Brosnan</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>James Bond</t>
+  </si>
+  <si>
+    <t>Dr. No, From Russia with Love, Goldfinger, Thunderball, You Only Live Twice, Diamonds Are Forever</t>
+  </si>
+  <si>
+    <t>On Her Majesty's Secret Service</t>
+  </si>
+  <si>
+    <t>Live and Let Die, The Man with the Golden Gun, The Spy Who Loved Me, Moonraker, For Your Eyes Only, Octopussy, A View to a Kill</t>
+  </si>
+  <si>
+    <t>The Living Daylights, Licence to Kill</t>
+  </si>
+  <si>
+    <t>GoldenEye, Tomorrow Never Dies, The World is Not Enough, Die Another Day</t>
+  </si>
+  <si>
+    <t>Casino Royale, Quantum of Solace, Skyfall, Spectre, No Time To Die</t>
+  </si>
+  <si>
+    <t>Alec Guiness</t>
+  </si>
+  <si>
+    <t>Obi-Wan Kenobi</t>
+  </si>
+  <si>
+    <t>Star Wars: Episode I - The Phantom Menace, Star Wars: Episode II - Attack of the Clones, Star Wars: Episode III – Revenge of the Sith, Obi-Wan Kenobi</t>
+  </si>
+  <si>
+    <t>Star Wars: Episode IV - A New Hope, Star Wars: Episode V - The Empire Strikes Back, Star Wars: Episode VI - Return of the Jedi</t>
+  </si>
+  <si>
+    <t>Hayden Christensen</t>
+  </si>
+  <si>
+    <t>Jake Lloyd</t>
+  </si>
+  <si>
+    <t>Anakin Skywalker</t>
+  </si>
+  <si>
+    <t>Star Wars: Episode II - Attack of the Clones, Star Wars: Episode III – Revenge of the Sith</t>
+  </si>
+  <si>
+    <t>Star Wars: Episode I - The Phantom Menace</t>
+  </si>
+  <si>
+    <t>Edward Furlong</t>
+  </si>
+  <si>
+    <t>Nick Stahl</t>
+  </si>
+  <si>
+    <t>Jason Clarke</t>
+  </si>
+  <si>
+    <t>John Connor</t>
+  </si>
+  <si>
+    <t>Terminator 3: Rise of the Machines</t>
+  </si>
+  <si>
+    <t>Terminator Salvation</t>
+  </si>
+  <si>
+    <t>Terminator Genisys</t>
+  </si>
+  <si>
+    <t>Terminator 2: Judgment Day, Terminator Dark Fate</t>
+  </si>
+  <si>
+    <t>Michael Biehn</t>
+  </si>
+  <si>
+    <t>Anton Yelchin</t>
+  </si>
+  <si>
+    <t>Jai Courtney</t>
+  </si>
+  <si>
+    <t>Kyle Reese</t>
+  </si>
+  <si>
+    <t>Terminator</t>
+  </si>
+  <si>
+    <t>Alec Baldwin</t>
+  </si>
+  <si>
+    <t>The Hunt for Red October</t>
+  </si>
+  <si>
+    <t>Patriot Games, Clear and Present Danger</t>
+  </si>
+  <si>
+    <t>John Krasinski</t>
+  </si>
+  <si>
+    <t>Tom Clancy's Jack Ryan</t>
   </si>
 </sst>
 </file>
@@ -3019,18 +3163,18 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.28515625" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3056,19 +3200,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3076,19 +3220,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>689</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3096,19 +3240,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>689</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3116,19 +3260,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3136,19 +3280,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>895</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>896</v>
       </c>
       <c r="C6" t="s">
-        <v>259</v>
+        <v>897</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>898</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>899</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3156,19 +3300,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3176,19 +3320,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3196,19 +3340,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3216,19 +3360,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3236,19 +3380,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>692</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3256,19 +3400,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>692</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3276,19 +3420,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3296,19 +3440,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>689</v>
+        <v>36</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -3316,19 +3460,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -3336,19 +3480,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -3356,19 +3500,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>700</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>701</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>703</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>702</v>
+        <v>26</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -3376,19 +3520,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>231</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -3396,19 +3540,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -3416,19 +3560,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -3436,19 +3580,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3456,19 +3600,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -3476,19 +3620,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>696</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -3496,19 +3640,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>693</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>694</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -3516,19 +3660,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -3536,19 +3680,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -3556,19 +3700,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>691</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -3576,19 +3720,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s">
-        <v>185</v>
+        <v>88</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -3596,19 +3740,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -3616,19 +3760,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -3636,19 +3780,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -3656,19 +3800,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>689</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -3676,19 +3820,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>689</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -3696,19 +3840,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>689</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -3716,19 +3860,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>211</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -3736,19 +3880,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>239</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3756,19 +3900,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -3776,19 +3920,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>689</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -3796,19 +3940,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>692</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3816,19 +3960,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>692</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
         <v>28</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -3836,19 +3980,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
         <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -3856,16 +4000,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
@@ -3876,19 +4020,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -3896,19 +4040,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>695</v>
       </c>
       <c r="D44" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3916,19 +4060,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="D45" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3936,19 +4080,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="E46" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -3956,19 +4100,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3976,19 +4120,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="B48" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -3996,19 +4140,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>213</v>
+        <v>696</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -4016,19 +4160,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>238</v>
+        <v>913</v>
       </c>
       <c r="B50" t="s">
-        <v>239</v>
+        <v>876</v>
       </c>
       <c r="C50" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>914</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>915</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -4036,19 +4180,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>238</v>
+        <v>913</v>
       </c>
       <c r="B51" t="s">
-        <v>241</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>914</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -4056,19 +4200,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>913</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="D52" t="s">
-        <v>171</v>
+        <v>914</v>
       </c>
       <c r="E52" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -4076,19 +4220,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>176</v>
-      </c>
-      <c r="B53" t="s">
-        <v>177</v>
+        <v>913</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>916</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
+        <v>914</v>
       </c>
       <c r="E53" t="s">
-        <v>180</v>
+        <v>917</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -4096,19 +4240,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>876</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>915</v>
       </c>
       <c r="E54" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -4116,19 +4260,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>198</v>
+        <v>876</v>
       </c>
       <c r="B55" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="C55" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
-        <v>120</v>
+        <v>915</v>
       </c>
       <c r="E55" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -4136,19 +4280,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>126</v>
-      </c>
-      <c r="B56" t="s">
-        <v>127</v>
+        <v>876</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>916</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>129</v>
+        <v>915</v>
       </c>
       <c r="E56" t="s">
-        <v>130</v>
+        <v>917</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -4156,19 +4300,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="E57" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -4176,19 +4320,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" t="s">
-        <v>47</v>
+        <v>140</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>916</v>
       </c>
       <c r="C58" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="E58" t="s">
-        <v>50</v>
+        <v>917</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -4196,19 +4340,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>208</v>
-      </c>
-      <c r="B59" t="s">
-        <v>209</v>
+        <v>141</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>916</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="E59" t="s">
-        <v>50</v>
+        <v>917</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -4216,19 +4360,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>879</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>880</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>884</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>886</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>887</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -4236,19 +4380,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>879</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>881</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>884</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>886</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>888</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -4256,19 +4400,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>879</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>882</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>884</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>886</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
+        <v>889</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -4276,19 +4420,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>879</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>883</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>884</v>
       </c>
       <c r="D63" t="s">
-        <v>693</v>
+        <v>886</v>
       </c>
       <c r="E63" t="s">
-        <v>694</v>
+        <v>890</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -4296,19 +4440,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>222</v>
+        <v>882</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>883</v>
       </c>
       <c r="C64" t="s">
-        <v>224</v>
+        <v>884</v>
       </c>
       <c r="D64" t="s">
-        <v>693</v>
+        <v>889</v>
       </c>
       <c r="E64" t="s">
-        <v>694</v>
+        <v>890</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -4316,19 +4460,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>245</v>
+        <v>880</v>
       </c>
       <c r="B65" t="s">
-        <v>243</v>
+        <v>881</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>884</v>
       </c>
       <c r="D65" t="s">
-        <v>246</v>
+        <v>887</v>
       </c>
       <c r="E65" t="s">
-        <v>244</v>
+        <v>888</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -4336,19 +4480,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>245</v>
+        <v>880</v>
       </c>
       <c r="B66" t="s">
-        <v>242</v>
+        <v>882</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>884</v>
       </c>
       <c r="D66" t="s">
-        <v>246</v>
+        <v>887</v>
       </c>
       <c r="E66" t="s">
-        <v>87</v>
+        <v>889</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -4356,19 +4500,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>880</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>883</v>
       </c>
       <c r="C67" t="s">
-        <v>43</v>
+        <v>884</v>
       </c>
       <c r="D67" t="s">
-        <v>44</v>
+        <v>887</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>890</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -4376,19 +4520,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>879</v>
       </c>
       <c r="C68" t="s">
-        <v>168</v>
+        <v>884</v>
       </c>
       <c r="D68" t="s">
-        <v>44</v>
+        <v>885</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>886</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -4396,19 +4540,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>880</v>
       </c>
       <c r="C69" t="s">
-        <v>95</v>
+        <v>884</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>885</v>
       </c>
       <c r="E69" t="s">
-        <v>99</v>
+        <v>887</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -4416,19 +4560,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>881</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>884</v>
       </c>
       <c r="D70" t="s">
-        <v>147</v>
+        <v>885</v>
       </c>
       <c r="E70" t="s">
-        <v>148</v>
+        <v>888</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -4439,16 +4583,16 @@
         <v>219</v>
       </c>
       <c r="B71" t="s">
-        <v>220</v>
+        <v>882</v>
       </c>
       <c r="C71" t="s">
-        <v>217</v>
+        <v>884</v>
       </c>
       <c r="D71" t="s">
-        <v>217</v>
+        <v>885</v>
       </c>
       <c r="E71" t="s">
-        <v>221</v>
+        <v>889</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -4456,19 +4600,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
+        <v>883</v>
       </c>
       <c r="C72" t="s">
-        <v>217</v>
+        <v>884</v>
       </c>
       <c r="D72" t="s">
-        <v>218</v>
+        <v>885</v>
       </c>
       <c r="E72" t="s">
-        <v>217</v>
+        <v>890</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -4476,19 +4620,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>881</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>882</v>
       </c>
       <c r="C73" t="s">
-        <v>56</v>
+        <v>884</v>
       </c>
       <c r="D73" t="s">
-        <v>57</v>
+        <v>888</v>
       </c>
       <c r="E73" t="s">
-        <v>58</v>
+        <v>889</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -4496,19 +4640,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>234</v>
+        <v>881</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>883</v>
       </c>
       <c r="C74" t="s">
-        <v>236</v>
+        <v>884</v>
       </c>
       <c r="D74" t="s">
-        <v>237</v>
+        <v>888</v>
       </c>
       <c r="E74" t="s">
-        <v>236</v>
+        <v>890</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -4516,19 +4660,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="D75" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="E75" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -4536,19 +4680,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D76" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="E76" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -4556,19 +4700,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="B77" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="D77" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="E77" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -4576,19 +4720,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="E78" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -4596,19 +4740,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="D79" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -4616,19 +4760,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>64</v>
+        <v>900</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>901</v>
       </c>
       <c r="C80" t="s">
-        <v>66</v>
+        <v>903</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>907</v>
       </c>
       <c r="E80" t="s">
-        <v>68</v>
+        <v>904</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -4636,19 +4780,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>900</v>
       </c>
       <c r="B81" t="s">
-        <v>113</v>
+        <v>607</v>
       </c>
       <c r="C81" t="s">
-        <v>695</v>
+        <v>903</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>907</v>
       </c>
       <c r="E81" t="s">
-        <v>115</v>
+        <v>905</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -4656,19 +4800,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>252</v>
+        <v>900</v>
       </c>
       <c r="B82" t="s">
-        <v>253</v>
+        <v>902</v>
       </c>
       <c r="C82" t="s">
-        <v>254</v>
+        <v>903</v>
       </c>
       <c r="D82" t="s">
-        <v>255</v>
+        <v>907</v>
       </c>
       <c r="E82" t="s">
-        <v>256</v>
+        <v>906</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -4676,19 +4820,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>140</v>
+        <v>901</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>607</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>903</v>
       </c>
       <c r="D83" t="s">
-        <v>143</v>
+        <v>904</v>
       </c>
       <c r="E83" t="s">
-        <v>144</v>
+        <v>905</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -4696,19 +4840,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>901</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>902</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>903</v>
       </c>
       <c r="D84" t="s">
-        <v>87</v>
+        <v>904</v>
       </c>
       <c r="E84" t="s">
-        <v>88</v>
+        <v>906</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -4716,19 +4860,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>242</v>
+        <v>607</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>902</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>903</v>
       </c>
       <c r="D85" t="s">
-        <v>87</v>
+        <v>905</v>
       </c>
       <c r="E85" t="s">
-        <v>244</v>
+        <v>906</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -4736,19 +4880,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="D86" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="E86" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -4756,19 +4900,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B87" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C87" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D87" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="E87" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -4776,19 +4920,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="C88" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="D88" t="s">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="E88" t="s">
-        <v>251</v>
+        <v>125</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -4796,48 +4940,722 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>257</v>
+        <v>908</v>
       </c>
       <c r="B89" t="s">
-        <v>258</v>
+        <v>909</v>
       </c>
       <c r="C89" t="s">
-        <v>259</v>
+        <v>911</v>
       </c>
       <c r="D89" t="s">
-        <v>260</v>
+        <v>912</v>
       </c>
       <c r="E89" t="s">
-        <v>261</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
+        <v>905</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>909</v>
+      </c>
+      <c r="B90" t="s">
+        <v>910</v>
+      </c>
+      <c r="C90" t="s">
+        <v>911</v>
+      </c>
+      <c r="D90" t="s">
+        <v>905</v>
+      </c>
+      <c r="E90" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91" t="s">
+        <v>179</v>
+      </c>
+      <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" t="s">
+        <v>184</v>
+      </c>
+      <c r="E92" t="s">
+        <v>185</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>181</v>
+      </c>
+      <c r="B93" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" t="s">
+        <v>183</v>
+      </c>
+      <c r="D93" t="s">
+        <v>184</v>
+      </c>
+      <c r="E93" t="s">
+        <v>187</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="s">
+        <v>190</v>
+      </c>
+      <c r="D94" t="s">
+        <v>134</v>
+      </c>
+      <c r="E94" t="s">
+        <v>135</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95" t="s">
+        <v>91</v>
+      </c>
+      <c r="E95" t="s">
+        <v>92</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" t="s">
+        <v>196</v>
+      </c>
+      <c r="D96" t="s">
+        <v>196</v>
+      </c>
+      <c r="E96" t="s">
+        <v>197</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" t="s">
+        <v>199</v>
+      </c>
+      <c r="C97" t="s">
+        <v>200</v>
+      </c>
+      <c r="D97" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97" t="s">
+        <v>201</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" t="s">
+        <v>204</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" t="s">
+        <v>26</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>205</v>
+      </c>
+      <c r="B99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" t="s">
+        <v>204</v>
+      </c>
+      <c r="D99" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" t="s">
+        <v>204</v>
+      </c>
+      <c r="D100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>72</v>
+      </c>
+      <c r="B101" t="s">
+        <v>891</v>
+      </c>
+      <c r="C101" t="s">
+        <v>892</v>
+      </c>
+      <c r="D101" t="s">
+        <v>893</v>
+      </c>
+      <c r="E101" t="s">
+        <v>894</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>262</v>
+      </c>
+      <c r="B102" t="s">
+        <v>700</v>
+      </c>
+      <c r="C102" t="s">
+        <v>701</v>
+      </c>
+      <c r="D102" t="s">
+        <v>703</v>
+      </c>
+      <c r="E102" t="s">
+        <v>702</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>93</v>
+      </c>
+      <c r="C103" t="s">
+        <v>207</v>
+      </c>
+      <c r="D103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="s">
+        <v>210</v>
+      </c>
+      <c r="D104" t="s">
+        <v>49</v>
+      </c>
+      <c r="E104" t="s">
+        <v>50</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" t="s">
+        <v>26</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" t="s">
+        <v>213</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" t="s">
+        <v>213</v>
+      </c>
+      <c r="D107" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" t="s">
+        <v>26</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108" t="s">
+        <v>217</v>
+      </c>
+      <c r="D108" t="s">
+        <v>218</v>
+      </c>
+      <c r="E108" t="s">
+        <v>217</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" t="s">
+        <v>217</v>
+      </c>
+      <c r="D109" t="s">
+        <v>217</v>
+      </c>
+      <c r="E109" t="s">
+        <v>221</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>222</v>
+      </c>
+      <c r="B110" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" t="s">
+        <v>224</v>
+      </c>
+      <c r="D110" t="s">
+        <v>693</v>
+      </c>
+      <c r="E110" t="s">
+        <v>694</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111" t="s">
+        <v>226</v>
+      </c>
+      <c r="C111" t="s">
+        <v>227</v>
+      </c>
+      <c r="D111" t="s">
+        <v>228</v>
+      </c>
+      <c r="E111" t="s">
+        <v>229</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" t="s">
+        <v>82</v>
+      </c>
+      <c r="C112" t="s">
+        <v>231</v>
+      </c>
+      <c r="D112" t="s">
+        <v>232</v>
+      </c>
+      <c r="E112" t="s">
+        <v>233</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>234</v>
+      </c>
+      <c r="B113" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" t="s">
+        <v>236</v>
+      </c>
+      <c r="D113" t="s">
+        <v>237</v>
+      </c>
+      <c r="E113" t="s">
+        <v>236</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>238</v>
+      </c>
+      <c r="B114" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" t="s">
+        <v>240</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>238</v>
+      </c>
+      <c r="B115" t="s">
+        <v>241</v>
+      </c>
+      <c r="C115" t="s">
+        <v>240</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>239</v>
+      </c>
+      <c r="B116" t="s">
+        <v>241</v>
+      </c>
+      <c r="C116" t="s">
+        <v>240</v>
+      </c>
+      <c r="D116" t="s">
+        <v>25</v>
+      </c>
+      <c r="E116" t="s">
+        <v>26</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>242</v>
+      </c>
+      <c r="B117" t="s">
+        <v>243</v>
+      </c>
+      <c r="C117" t="s">
+        <v>87</v>
+      </c>
+      <c r="D117" t="s">
+        <v>87</v>
+      </c>
+      <c r="E117" t="s">
+        <v>244</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>245</v>
+      </c>
+      <c r="B118" t="s">
+        <v>243</v>
+      </c>
+      <c r="C118" t="s">
+        <v>87</v>
+      </c>
+      <c r="D118" t="s">
+        <v>246</v>
+      </c>
+      <c r="E118" t="s">
+        <v>244</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>245</v>
+      </c>
+      <c r="B119" t="s">
+        <v>242</v>
+      </c>
+      <c r="C119" t="s">
+        <v>87</v>
+      </c>
+      <c r="D119" t="s">
+        <v>246</v>
+      </c>
+      <c r="E119" t="s">
+        <v>87</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>247</v>
+      </c>
+      <c r="B120" t="s">
+        <v>248</v>
+      </c>
+      <c r="C120" t="s">
+        <v>249</v>
+      </c>
+      <c r="D120" t="s">
+        <v>250</v>
+      </c>
+      <c r="E120" t="s">
+        <v>251</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>252</v>
+      </c>
+      <c r="B121" t="s">
+        <v>253</v>
+      </c>
+      <c r="C121" t="s">
+        <v>254</v>
+      </c>
+      <c r="D121" t="s">
+        <v>255</v>
+      </c>
+      <c r="E121" t="s">
+        <v>256</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>257</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B122" t="s">
+        <v>258</v>
+      </c>
+      <c r="C122" t="s">
+        <v>259</v>
+      </c>
+      <c r="D122" t="s">
+        <v>260</v>
+      </c>
+      <c r="E122" t="s">
+        <v>261</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>257</v>
+      </c>
+      <c r="B123" t="s">
         <v>262</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C123" t="s">
         <v>259</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D123" t="s">
         <v>260</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E123" t="s">
         <v>263</v>
       </c>
-      <c r="F90">
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>258</v>
+      </c>
+      <c r="B124" t="s">
+        <v>262</v>
+      </c>
+      <c r="C124" t="s">
+        <v>259</v>
+      </c>
+      <c r="D124" t="s">
+        <v>261</v>
+      </c>
+      <c r="E124" t="s">
+        <v>263</v>
+      </c>
+      <c r="F124">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F90">
-      <sortCondition ref="D1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F124">
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4851,7 +5669,7 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
@@ -4887,19 +5705,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>704</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>705</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>706</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>707</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>708</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -4907,19 +5725,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -4927,19 +5745,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -4947,39 +5765,36 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>426</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>721</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>717</v>
       </c>
       <c r="D5" t="s">
-        <v>281</v>
+        <v>718</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C6" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -4987,19 +5802,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -5007,19 +5822,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D8" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E8" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -5027,19 +5842,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B9" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D9" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="E9" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -5047,19 +5862,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D10" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -5067,19 +5882,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B11" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C11" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E11" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -5087,19 +5902,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="B12" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C12" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="E12" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -5107,19 +5922,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C13" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D13" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E13" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -5127,19 +5942,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="B14" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C14" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D14" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="E14" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -5147,19 +5962,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C15" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D15" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E15" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -5167,19 +5982,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>252</v>
       </c>
       <c r="B16" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>322</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>323</v>
       </c>
       <c r="E16" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -5187,19 +6002,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C17" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D17" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E17" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -5207,19 +6022,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C18" t="s">
-        <v>334</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>338</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -5227,7 +6042,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B19" t="s">
         <v>333</v>
@@ -5236,10 +6051,10 @@
         <v>334</v>
       </c>
       <c r="D19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E19" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -5247,19 +6062,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>337</v>
       </c>
       <c r="B20" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C20" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D20" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="E20" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -5267,19 +6082,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B21" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C21" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D21" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="E21" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -5287,19 +6102,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C22" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D22" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="E22" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -5307,19 +6122,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>342</v>
       </c>
       <c r="B23" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C23" t="s">
-        <v>690</v>
+        <v>344</v>
       </c>
       <c r="D23" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="E23" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -5327,19 +6142,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>345</v>
       </c>
       <c r="B24" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C24" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D24" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E24" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -5347,19 +6162,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>356</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C25" t="s">
-        <v>358</v>
+        <v>690</v>
       </c>
       <c r="D25" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E25" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -5367,19 +6182,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>361</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C26" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D26" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="E26" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -5387,13 +6202,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B27" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C27" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D27" t="s">
         <v>359</v>
@@ -5407,19 +6222,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B28" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C28" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D28" t="s">
-        <v>370</v>
+        <v>276</v>
       </c>
       <c r="E28" t="s">
-        <v>371</v>
+        <v>277</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -5427,19 +6242,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B29" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C29" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D29" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="E29" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -5447,19 +6262,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B30" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C30" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D30" t="s">
-        <v>276</v>
+        <v>370</v>
       </c>
       <c r="E30" t="s">
-        <v>277</v>
+        <v>371</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -5467,19 +6282,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>711</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>709</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>710</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>707</v>
       </c>
       <c r="E31" t="s">
-        <v>187</v>
+        <v>708</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -5487,19 +6302,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B32" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C32" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D32" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="E32" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -5507,19 +6322,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B33" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C33" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D33" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E33" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -5527,19 +6342,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>384</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s">
-        <v>385</v>
+        <v>186</v>
       </c>
       <c r="C34" t="s">
-        <v>386</v>
+        <v>183</v>
       </c>
       <c r="D34" t="s">
-        <v>281</v>
+        <v>185</v>
       </c>
       <c r="E34" t="s">
-        <v>282</v>
+        <v>187</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -5547,19 +6362,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>199</v>
+        <v>378</v>
       </c>
       <c r="B35" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C35" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D35" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="E35" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -5567,19 +6382,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>381</v>
       </c>
       <c r="B36" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C36" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D36" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="E36" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -5587,19 +6402,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B37" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C37" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D37" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="E37" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -5607,19 +6422,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>345</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C38" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D38" t="s">
-        <v>301</v>
+        <v>389</v>
       </c>
       <c r="E38" t="s">
-        <v>302</v>
+        <v>390</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -5627,19 +6442,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>398</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C39" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D39" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="E39" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -5647,19 +6462,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B40" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C40" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D40" t="s">
-        <v>338</v>
+        <v>267</v>
       </c>
       <c r="E40" t="s">
-        <v>339</v>
+        <v>268</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -5667,19 +6482,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>399</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C41" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D41" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="E41" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -5687,19 +6502,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B42" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C42" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D42" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E42" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -5707,13 +6522,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B43" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C43" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D43" t="s">
         <v>338</v>
@@ -5727,19 +6542,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B44" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C44" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D44" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E44" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -5747,39 +6562,36 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>409</v>
+        <v>715</v>
       </c>
       <c r="B45" t="s">
-        <v>406</v>
+        <v>720</v>
       </c>
       <c r="C45" t="s">
-        <v>407</v>
+        <v>716</v>
       </c>
       <c r="D45" t="s">
-        <v>335</v>
+        <v>718</v>
       </c>
       <c r="E45" t="s">
-        <v>336</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
+        <v>719</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="B46" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C46" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D46" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="E46" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -5787,19 +6599,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>215</v>
+        <v>712</v>
       </c>
       <c r="B47" t="s">
-        <v>279</v>
+        <v>714</v>
       </c>
       <c r="C47" t="s">
-        <v>217</v>
+        <v>713</v>
       </c>
       <c r="D47" t="s">
-        <v>414</v>
+        <v>707</v>
       </c>
       <c r="E47" t="s">
-        <v>415</v>
+        <v>708</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -5807,19 +6619,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B48" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="C48" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D48" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="E48" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -5827,19 +6639,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B49" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C49" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D49" t="s">
-        <v>422</v>
+        <v>338</v>
       </c>
       <c r="E49" t="s">
-        <v>423</v>
+        <v>339</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -5847,19 +6659,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B50" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="C50" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D50" t="s">
-        <v>422</v>
+        <v>335</v>
       </c>
       <c r="E50" t="s">
-        <v>425</v>
+        <v>336</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -5867,19 +6679,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="B51" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="C51" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="D51" t="s">
-        <v>301</v>
+        <v>412</v>
       </c>
       <c r="E51" t="s">
-        <v>302</v>
+        <v>413</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -5887,19 +6699,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="B52" t="s">
-        <v>697</v>
+        <v>279</v>
       </c>
       <c r="C52" t="s">
-        <v>698</v>
+        <v>217</v>
       </c>
       <c r="D52" t="s">
-        <v>698</v>
+        <v>414</v>
       </c>
       <c r="E52" t="s">
-        <v>699</v>
+        <v>415</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -5907,19 +6719,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="B53" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="C53" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="D53" t="s">
-        <v>276</v>
+        <v>389</v>
       </c>
       <c r="E53" t="s">
-        <v>277</v>
+        <v>390</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -5927,19 +6739,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B54" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="C54" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D54" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="E54" t="s">
-        <v>339</v>
+        <v>423</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -5947,19 +6759,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B55" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C55" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D55" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
       <c r="E55" t="s">
-        <v>339</v>
+        <v>425</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -5967,19 +6779,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B56" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C56" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D56" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="E56" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -5987,19 +6799,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>436</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s">
-        <v>437</v>
+        <v>697</v>
       </c>
       <c r="C57" t="s">
-        <v>438</v>
+        <v>698</v>
       </c>
       <c r="D57" t="s">
-        <v>439</v>
+        <v>698</v>
       </c>
       <c r="E57" t="s">
-        <v>440</v>
+        <v>699</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -6007,19 +6819,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B58" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C58" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="D58" t="s">
-        <v>338</v>
+        <v>276</v>
       </c>
       <c r="E58" t="s">
-        <v>339</v>
+        <v>277</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -6027,13 +6839,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B59" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C59" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D59" t="s">
         <v>338</v>
@@ -6047,19 +6859,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B60" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="C60" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="D60" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="E60" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -6067,19 +6879,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>704</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s">
-        <v>705</v>
+        <v>435</v>
       </c>
       <c r="C61" t="s">
-        <v>706</v>
+        <v>434</v>
       </c>
       <c r="D61" t="s">
-        <v>707</v>
+        <v>335</v>
       </c>
       <c r="E61" t="s">
-        <v>708</v>
+        <v>336</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -6087,19 +6899,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>711</v>
+        <v>436</v>
       </c>
       <c r="B62" t="s">
-        <v>709</v>
+        <v>437</v>
       </c>
       <c r="C62" t="s">
-        <v>710</v>
+        <v>438</v>
       </c>
       <c r="D62" t="s">
-        <v>707</v>
+        <v>439</v>
       </c>
       <c r="E62" t="s">
-        <v>708</v>
+        <v>440</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -6107,19 +6919,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>712</v>
+        <v>441</v>
       </c>
       <c r="B63" t="s">
-        <v>714</v>
+        <v>442</v>
       </c>
       <c r="C63" t="s">
-        <v>713</v>
+        <v>443</v>
       </c>
       <c r="D63" t="s">
-        <v>707</v>
+        <v>338</v>
       </c>
       <c r="E63" t="s">
-        <v>708</v>
+        <v>339</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -6127,41 +6939,47 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>715</v>
+        <v>441</v>
       </c>
       <c r="B64" t="s">
-        <v>720</v>
+        <v>444</v>
       </c>
       <c r="C64" t="s">
-        <v>716</v>
+        <v>443</v>
       </c>
       <c r="D64" t="s">
-        <v>718</v>
+        <v>338</v>
       </c>
       <c r="E64" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="B65" t="s">
-        <v>721</v>
+        <v>446</v>
       </c>
       <c r="C65" t="s">
-        <v>717</v>
+        <v>447</v>
       </c>
       <c r="D65" t="s">
-        <v>718</v>
+        <v>276</v>
       </c>
       <c r="E65" t="s">
-        <v>719</v>
+        <v>277</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F60">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F65">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
@@ -6943,36 +7761,33 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>558</v>
+        <v>679</v>
       </c>
       <c r="B16" t="s">
-        <v>559</v>
+        <v>767</v>
       </c>
       <c r="C16" t="s">
-        <v>560</v>
+        <v>768</v>
       </c>
       <c r="D16" t="s">
-        <v>561</v>
+        <v>769</v>
       </c>
       <c r="E16" t="s">
-        <v>561</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
+        <v>770</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>558</v>
       </c>
       <c r="B17" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C17" t="s">
         <v>560</v>
       </c>
       <c r="D17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E17" t="s">
         <v>561</v>
@@ -6986,7 +7801,7 @@
         <v>234</v>
       </c>
       <c r="B18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C18" t="s">
         <v>560</v>
@@ -7006,7 +7821,7 @@
         <v>234</v>
       </c>
       <c r="B19" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C19" t="s">
         <v>560</v>
@@ -7015,7 +7830,7 @@
         <v>562</v>
       </c>
       <c r="E19" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -7023,19 +7838,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" t="s">
         <v>563</v>
-      </c>
-      <c r="B20" t="s">
-        <v>558</v>
       </c>
       <c r="C20" t="s">
         <v>560</v>
       </c>
       <c r="D20" t="s">
+        <v>562</v>
+      </c>
+      <c r="E20" t="s">
         <v>564</v>
-      </c>
-      <c r="E20" t="s">
-        <v>561</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -7046,7 +7861,7 @@
         <v>563</v>
       </c>
       <c r="B21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C21" t="s">
         <v>560</v>
@@ -7063,16 +7878,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B22" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C22" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D22" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E22" t="s">
         <v>561</v>
@@ -7083,16 +7898,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B23" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C23" t="s">
         <v>567</v>
       </c>
       <c r="D23" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="E23" t="s">
         <v>561</v>
@@ -7103,19 +7918,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B24" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C24" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D24" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="E24" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -7123,19 +7938,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>571</v>
       </c>
       <c r="B25" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C25" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D25" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E25" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F25">
         <v>4</v>
@@ -7143,24 +7958,27 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>679</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>767</v>
+        <v>575</v>
       </c>
       <c r="C26" t="s">
-        <v>768</v>
+        <v>576</v>
       </c>
       <c r="D26" t="s">
-        <v>769</v>
+        <v>577</v>
       </c>
       <c r="E26" t="s">
-        <v>770</v>
+        <v>578</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F25">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F26">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
@@ -7173,10 +7991,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117:XFD117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7185,7 +8003,7 @@
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="142.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="108.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="167" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7305,6 +8123,9 @@
       <c r="E6" t="s">
         <v>822</v>
       </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -7322,6 +8143,9 @@
       <c r="E7" t="s">
         <v>821</v>
       </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -7339,6 +8163,9 @@
       <c r="E8" t="s">
         <v>822</v>
       </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -7536,6 +8363,9 @@
       <c r="E18" t="s">
         <v>743</v>
       </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -7573,6 +8403,9 @@
       <c r="E20" t="s">
         <v>731</v>
       </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -7590,6 +8423,9 @@
       <c r="E21" t="s">
         <v>741</v>
       </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -7607,6 +8443,9 @@
       <c r="E22" t="s">
         <v>743</v>
       </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -7624,6 +8463,9 @@
       <c r="E23" t="s">
         <v>741</v>
       </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -7641,6 +8483,9 @@
       <c r="E24" t="s">
         <v>743</v>
       </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -7658,6 +8503,9 @@
       <c r="E25" t="s">
         <v>731</v>
       </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -7675,6 +8523,9 @@
       <c r="E26" t="s">
         <v>741</v>
       </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -7692,6 +8543,9 @@
       <c r="E27" t="s">
         <v>743</v>
       </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -7709,6 +8563,9 @@
       <c r="E28" t="s">
         <v>740</v>
       </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -7726,6 +8583,9 @@
       <c r="E29" t="s">
         <v>734</v>
       </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -7743,6 +8603,9 @@
       <c r="E30" t="s">
         <v>732</v>
       </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -7760,6 +8623,9 @@
       <c r="E31" t="s">
         <v>731</v>
       </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -7777,6 +8643,9 @@
       <c r="E32" t="s">
         <v>741</v>
       </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -7794,6 +8663,9 @@
       <c r="E33" t="s">
         <v>743</v>
       </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -7871,6 +8743,9 @@
       <c r="E37" t="s">
         <v>741</v>
       </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7908,6 +8783,9 @@
       <c r="E39" t="s">
         <v>724</v>
       </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -7945,6 +8823,9 @@
       <c r="E41" t="s">
         <v>780</v>
       </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -8002,6 +8883,9 @@
       <c r="E44" t="s">
         <v>748</v>
       </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -8019,6 +8903,9 @@
       <c r="E45" t="s">
         <v>746</v>
       </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -8036,6 +8923,9 @@
       <c r="E46" t="s">
         <v>620</v>
       </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -8053,6 +8943,9 @@
       <c r="E47" t="s">
         <v>747</v>
       </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -8070,6 +8963,9 @@
       <c r="E48" t="s">
         <v>749</v>
       </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -8087,6 +8983,9 @@
       <c r="E49" t="s">
         <v>748</v>
       </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -8104,6 +9003,9 @@
       <c r="E50" t="s">
         <v>620</v>
       </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -8181,6 +9083,9 @@
       <c r="E54" t="s">
         <v>749</v>
       </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -8198,6 +9103,9 @@
       <c r="E55" t="s">
         <v>748</v>
       </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -8235,6 +9143,9 @@
       <c r="E57" t="s">
         <v>745</v>
       </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -8252,6 +9163,9 @@
       <c r="E58" t="s">
         <v>746</v>
       </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -8269,6 +9183,9 @@
       <c r="E59" t="s">
         <v>620</v>
       </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -8286,6 +9203,9 @@
       <c r="E60" t="s">
         <v>747</v>
       </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -8303,6 +9223,9 @@
       <c r="E61" t="s">
         <v>749</v>
       </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -8320,6 +9243,9 @@
       <c r="E62" t="s">
         <v>748</v>
       </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -8337,6 +9263,9 @@
       <c r="E63" t="s">
         <v>750</v>
       </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -8374,6 +9303,9 @@
       <c r="E65" t="s">
         <v>776</v>
       </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -8411,6 +9343,9 @@
       <c r="E67" t="s">
         <v>633</v>
       </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -8428,6 +9363,9 @@
       <c r="E68" t="s">
         <v>751</v>
       </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -8465,6 +9403,9 @@
       <c r="E70" t="s">
         <v>633</v>
       </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -8482,6 +9423,9 @@
       <c r="E71" t="s">
         <v>751</v>
       </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -8499,6 +9443,9 @@
       <c r="E72" t="s">
         <v>852</v>
       </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -8516,6 +9463,9 @@
       <c r="E73" t="s">
         <v>724</v>
       </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -8533,6 +9483,9 @@
       <c r="E74" t="s">
         <v>788</v>
       </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -8570,6 +9523,9 @@
       <c r="E76" t="s">
         <v>821</v>
       </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -8627,6 +9583,9 @@
       <c r="E79" t="s">
         <v>839</v>
       </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -8664,6 +9623,9 @@
       <c r="E81" t="s">
         <v>800</v>
       </c>
+      <c r="F81">
+        <v>5</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -8841,6 +9803,9 @@
       <c r="E90" t="s">
         <v>792</v>
       </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -8858,6 +9823,9 @@
       <c r="E91" t="s">
         <v>848</v>
       </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -8875,6 +9843,9 @@
       <c r="E92" t="s">
         <v>748</v>
       </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -8892,6 +9863,9 @@
       <c r="E93" t="s">
         <v>748</v>
       </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -8909,6 +9883,9 @@
       <c r="E94" t="s">
         <v>620</v>
       </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -8926,6 +9903,9 @@
       <c r="E95" t="s">
         <v>847</v>
       </c>
+      <c r="F95">
+        <v>5</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -8943,8 +9923,11 @@
       <c r="E96" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>843</v>
       </c>
@@ -8960,8 +9943,11 @@
       <c r="E97" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>840</v>
       </c>
@@ -8977,8 +9963,11 @@
       <c r="E98" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>840</v>
       </c>
@@ -8994,8 +9983,11 @@
       <c r="E99" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>840</v>
       </c>
@@ -9011,8 +10003,11 @@
       <c r="E100" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>173</v>
       </c>
@@ -9028,8 +10023,11 @@
       <c r="E101" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>173</v>
       </c>
@@ -9045,8 +10043,11 @@
       <c r="E102" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>173</v>
       </c>
@@ -9062,8 +10063,11 @@
       <c r="E103" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>173</v>
       </c>
@@ -9079,8 +10083,11 @@
       <c r="E104" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>173</v>
       </c>
@@ -9096,8 +10103,11 @@
       <c r="E105" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>173</v>
       </c>
@@ -9113,8 +10123,11 @@
       <c r="E106" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>842</v>
       </c>
@@ -9130,8 +10143,11 @@
       <c r="E107" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>842</v>
       </c>
@@ -9147,8 +10163,11 @@
       <c r="E108" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>842</v>
       </c>
@@ -9164,8 +10183,11 @@
       <c r="E109" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>842</v>
       </c>
@@ -9181,8 +10203,11 @@
       <c r="E110" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>842</v>
       </c>
@@ -9198,8 +10223,11 @@
       <c r="E111" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>140</v>
       </c>
@@ -9214,6 +10242,9 @@
       </c>
       <c r="E112" t="s">
         <v>759</v>
+      </c>
+      <c r="F112">
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -9252,6 +10283,9 @@
       <c r="E114" t="s">
         <v>800</v>
       </c>
+      <c r="F114">
+        <v>5</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -9289,6 +10323,9 @@
       <c r="E116" t="s">
         <v>763</v>
       </c>
+      <c r="F116">
+        <v>5</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -9326,6 +10363,9 @@
       <c r="E118" t="s">
         <v>817</v>
       </c>
+      <c r="F118">
+        <v>5</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -9363,6 +10403,9 @@
       <c r="E120" t="s">
         <v>784</v>
       </c>
+      <c r="F120">
+        <v>5</v>
+      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -9440,6 +10483,9 @@
       <c r="E124" t="s">
         <v>800</v>
       </c>
+      <c r="F124">
+        <v>5</v>
+      </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -9657,6 +10703,9 @@
       <c r="E135" t="s">
         <v>821</v>
       </c>
+      <c r="F135">
+        <v>5</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
@@ -9694,6 +10743,9 @@
       <c r="E137" t="s">
         <v>813</v>
       </c>
+      <c r="F137">
+        <v>5</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -9711,6 +10763,9 @@
       <c r="E138" t="s">
         <v>792</v>
       </c>
+      <c r="F138">
+        <v>5</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
@@ -9728,6 +10783,9 @@
       <c r="E139" t="s">
         <v>687</v>
       </c>
+      <c r="F139">
+        <v>5</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
@@ -9745,6 +10803,9 @@
       <c r="E140" t="s">
         <v>792</v>
       </c>
+      <c r="F140">
+        <v>5</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -9762,6 +10823,9 @@
       <c r="E141" t="s">
         <v>746</v>
       </c>
+      <c r="F141">
+        <v>5</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -9779,6 +10843,9 @@
       <c r="E142" t="s">
         <v>589</v>
       </c>
+      <c r="F142">
+        <v>5</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -9796,6 +10863,9 @@
       <c r="E143" t="s">
         <v>620</v>
       </c>
+      <c r="F143">
+        <v>5</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
@@ -9813,8 +10883,11 @@
       <c r="E144" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>855</v>
       </c>
@@ -9830,8 +10903,11 @@
       <c r="E145" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>859</v>
       </c>
@@ -9847,8 +10923,11 @@
       <c r="E146" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>859</v>
       </c>
@@ -9864,8 +10943,11 @@
       <c r="E147" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>859</v>
       </c>
@@ -9881,8 +10963,11 @@
       <c r="E148" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>859</v>
       </c>
@@ -9898,8 +10983,11 @@
       <c r="E149" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>857</v>
       </c>
@@ -9915,8 +11003,11 @@
       <c r="E150" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>857</v>
       </c>
@@ -9932,8 +11023,11 @@
       <c r="E151" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>857</v>
       </c>
@@ -9949,8 +11043,11 @@
       <c r="E152" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>854</v>
       </c>
@@ -9966,8 +11063,11 @@
       <c r="E153" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>854</v>
       </c>
@@ -9983,8 +11083,11 @@
       <c r="E154" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>853</v>
       </c>
@@ -10000,8 +11103,11 @@
       <c r="E155" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>860</v>
       </c>
@@ -10017,8 +11123,11 @@
       <c r="E156" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>863</v>
       </c>
@@ -10034,8 +11143,11 @@
       <c r="E157" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>863</v>
       </c>
@@ -10051,8 +11163,11 @@
       <c r="E158" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>864</v>
       </c>
@@ -10067,6 +11182,89 @@
       </c>
       <c r="E159" t="s">
         <v>869</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="D160" t="s">
+        <v>867</v>
+      </c>
+      <c r="E160" t="s">
+        <v>868</v>
+      </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D161" t="s">
+        <v>867</v>
+      </c>
+      <c r="E161" t="s">
+        <v>877</v>
+      </c>
+      <c r="F161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D162" t="s">
+        <v>867</v>
+      </c>
+      <c r="E162" t="s">
+        <v>878</v>
+      </c>
+      <c r="F162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D163" t="s">
+        <v>878</v>
+      </c>
+      <c r="E163" t="s">
+        <v>877</v>
+      </c>
+      <c r="F163">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/carddata.xlsx
+++ b/carddata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Double Act\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C8008E-2FC3-4897-AEF5-199F39883BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C62682-B2EB-4438-A2EA-E9C0FD300086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Type1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Type3" sheetId="3" r:id="rId3"/>
     <sheet name="Type4" sheetId="4" r:id="rId4"/>
     <sheet name="Type5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Type1!$A$1:$F$1</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="1357">
   <si>
     <t>Actor1</t>
   </si>
@@ -3958,6 +3959,150 @@
   </si>
   <si>
     <t>Vampire Acdemy (TV)</t>
+  </si>
+  <si>
+    <t>Sissy Spacek</t>
+  </si>
+  <si>
+    <t>Carrie White</t>
+  </si>
+  <si>
+    <t>Chloe Grace Moretz</t>
+  </si>
+  <si>
+    <t>Carrie (1976)</t>
+  </si>
+  <si>
+    <t>Carrie (2013)</t>
+  </si>
+  <si>
+    <t>Louis Creed</t>
+  </si>
+  <si>
+    <t>Amy Seimetz</t>
+  </si>
+  <si>
+    <t>Rachel Creed</t>
+  </si>
+  <si>
+    <t>John Lithgow</t>
+  </si>
+  <si>
+    <t>Jud</t>
+  </si>
+  <si>
+    <t>Pet Sematary (2019)</t>
+  </si>
+  <si>
+    <t>Pet Sematary (1989)</t>
+  </si>
+  <si>
+    <t>Dale Midkiff</t>
+  </si>
+  <si>
+    <t>Denise Crosby</t>
+  </si>
+  <si>
+    <t>Fred Gwynne</t>
+  </si>
+  <si>
+    <t>Gary Sinise</t>
+  </si>
+  <si>
+    <t>Stu Redman</t>
+  </si>
+  <si>
+    <t>The Stand (1994)</t>
+  </si>
+  <si>
+    <t>Molly Ringwald</t>
+  </si>
+  <si>
+    <t>Frannie Goldsmith</t>
+  </si>
+  <si>
+    <t>Jamey Sheridan</t>
+  </si>
+  <si>
+    <t>Randal Flagg</t>
+  </si>
+  <si>
+    <t>Laura San Giacomo</t>
+  </si>
+  <si>
+    <t>Nadine Cross</t>
+  </si>
+  <si>
+    <t>Ruby Dee</t>
+  </si>
+  <si>
+    <t>Mother Abagail Freemantle</t>
+  </si>
+  <si>
+    <t>The Stand (2020)</t>
+  </si>
+  <si>
+    <t>Whoopi Golderg</t>
+  </si>
+  <si>
+    <t>Amber Heard</t>
+  </si>
+  <si>
+    <t>Alexander Skarsgard</t>
+  </si>
+  <si>
+    <t>Odessa Young</t>
+  </si>
+  <si>
+    <t>Ben Mears</t>
+  </si>
+  <si>
+    <t>Salem's Lot (1979)</t>
+  </si>
+  <si>
+    <t>Lewis Pullman</t>
+  </si>
+  <si>
+    <t>Salem's Lot (2024)</t>
+  </si>
+  <si>
+    <t>Salem's Lot (2004)</t>
+  </si>
+  <si>
+    <t>Bonnie Bedelia</t>
+  </si>
+  <si>
+    <t>Susan Norton</t>
+  </si>
+  <si>
+    <t>Samantha Mathis</t>
+  </si>
+  <si>
+    <t>Makenzie Leigh</t>
+  </si>
+  <si>
+    <t>Andre Braugher</t>
+  </si>
+  <si>
+    <t>Bill Camp</t>
+  </si>
+  <si>
+    <t>Matt Burke</t>
+  </si>
+  <si>
+    <t>Sarah Jessica Parker</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>AnnaSophia Rob</t>
+  </si>
+  <si>
+    <t>The Carrie Diaries</t>
+  </si>
+  <si>
+    <t>Sex and the City</t>
   </si>
 </sst>
 </file>
@@ -4336,10 +4481,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171:E171"/>
+    <sheetView topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7664,6 +7809,74 @@
       </c>
       <c r="E171" t="s">
         <v>1277</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>890</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1320</v>
       </c>
     </row>
   </sheetData>
@@ -7683,8 +7896,8 @@
   </sheetPr>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8199,273 +8412,240 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>211</v>
+        <v>1259</v>
       </c>
       <c r="B26" t="s">
-        <v>275</v>
+        <v>1244</v>
       </c>
       <c r="C26" t="s">
-        <v>213</v>
+        <v>1237</v>
       </c>
       <c r="D26" t="s">
-        <v>405</v>
+        <v>1264</v>
       </c>
       <c r="E26" t="s">
-        <v>406</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1110</v>
+        <v>863</v>
       </c>
       <c r="B27" t="s">
-        <v>1106</v>
+        <v>1243</v>
       </c>
       <c r="C27" t="s">
-        <v>1108</v>
+        <v>1238</v>
       </c>
       <c r="D27" t="s">
-        <v>1111</v>
+        <v>1264</v>
       </c>
       <c r="E27" t="s">
-        <v>1112</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1110</v>
+        <v>1262</v>
       </c>
       <c r="B28" t="s">
-        <v>1107</v>
+        <v>1255</v>
       </c>
       <c r="C28" t="s">
-        <v>1108</v>
+        <v>1239</v>
       </c>
       <c r="D28" t="s">
-        <v>1111</v>
+        <v>1264</v>
       </c>
       <c r="E28" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>416</v>
+        <v>1261</v>
       </c>
       <c r="B29" t="s">
-        <v>709</v>
+        <v>1248</v>
       </c>
       <c r="C29" t="s">
-        <v>706</v>
+        <v>1246</v>
       </c>
       <c r="D29" t="s">
-        <v>1117</v>
+        <v>1264</v>
       </c>
       <c r="E29" t="s">
-        <v>707</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>704</v>
+        <v>1260</v>
       </c>
       <c r="B30" t="s">
-        <v>708</v>
+        <v>1249</v>
       </c>
       <c r="C30" t="s">
-        <v>705</v>
+        <v>1247</v>
       </c>
       <c r="D30" t="s">
-        <v>1117</v>
+        <v>1264</v>
       </c>
       <c r="E30" t="s">
-        <v>707</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>269</v>
+        <v>1258</v>
       </c>
       <c r="B31" t="s">
-        <v>270</v>
+        <v>1245</v>
       </c>
       <c r="C31" t="s">
-        <v>271</v>
+        <v>1253</v>
       </c>
       <c r="D31" t="s">
-        <v>272</v>
+        <v>1264</v>
       </c>
       <c r="E31" t="s">
-        <v>273</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>353</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>354</v>
+        <v>1263</v>
       </c>
       <c r="C32" t="s">
-        <v>355</v>
+        <v>1250</v>
       </c>
       <c r="D32" t="s">
-        <v>272</v>
+        <v>1264</v>
       </c>
       <c r="E32" t="s">
-        <v>273</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>367</v>
+        <v>1259</v>
       </c>
       <c r="B33" t="s">
-        <v>368</v>
+        <v>1240</v>
       </c>
       <c r="C33" t="s">
-        <v>369</v>
+        <v>1237</v>
       </c>
       <c r="D33" t="s">
-        <v>272</v>
+        <v>1264</v>
       </c>
       <c r="E33" t="s">
-        <v>273</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>419</v>
+        <v>863</v>
       </c>
       <c r="B34" t="s">
-        <v>420</v>
+        <v>1241</v>
       </c>
       <c r="C34" t="s">
-        <v>421</v>
+        <v>1238</v>
       </c>
       <c r="D34" t="s">
-        <v>272</v>
+        <v>1264</v>
       </c>
       <c r="E34" t="s">
-        <v>273</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>435</v>
+        <v>1262</v>
       </c>
       <c r="B35" t="s">
-        <v>436</v>
+        <v>1242</v>
       </c>
       <c r="C35" t="s">
-        <v>437</v>
+        <v>1239</v>
       </c>
       <c r="D35" t="s">
-        <v>272</v>
+        <v>1264</v>
       </c>
       <c r="E35" t="s">
-        <v>273</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1169</v>
+        <v>1261</v>
       </c>
       <c r="B36" t="s">
-        <v>1170</v>
+        <v>1251</v>
       </c>
       <c r="C36" t="s">
-        <v>1171</v>
+        <v>1246</v>
       </c>
       <c r="D36" t="s">
-        <v>1172</v>
+        <v>1264</v>
       </c>
       <c r="E36" t="s">
-        <v>1173</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>178</v>
+        <v>1260</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>1252</v>
       </c>
       <c r="C37" t="s">
-        <v>179</v>
+        <v>1247</v>
       </c>
       <c r="D37" t="s">
-        <v>181</v>
+        <v>1264</v>
       </c>
       <c r="E37" t="s">
-        <v>183</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>348</v>
+        <v>1258</v>
       </c>
       <c r="B38" t="s">
-        <v>349</v>
+        <v>1254</v>
       </c>
       <c r="C38" t="s">
-        <v>350</v>
+        <v>1253</v>
       </c>
       <c r="D38" t="s">
-        <v>351</v>
+        <v>1264</v>
       </c>
       <c r="E38" t="s">
-        <v>352</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>356</v>
+        <v>211</v>
       </c>
       <c r="B39" t="s">
-        <v>357</v>
+        <v>275</v>
       </c>
       <c r="C39" t="s">
-        <v>358</v>
+        <v>213</v>
       </c>
       <c r="D39" t="s">
-        <v>351</v>
+        <v>405</v>
       </c>
       <c r="E39" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -8473,59 +8653,53 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>304</v>
+        <v>1275</v>
       </c>
       <c r="B40" t="s">
-        <v>305</v>
+        <v>1278</v>
       </c>
       <c r="C40" t="s">
-        <v>306</v>
+        <v>1276</v>
       </c>
       <c r="D40" t="s">
-        <v>307</v>
+        <v>1276</v>
       </c>
       <c r="E40" t="s">
-        <v>308</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>279</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>280</v>
+        <v>1278</v>
       </c>
       <c r="C41" t="s">
-        <v>281</v>
+        <v>1276</v>
       </c>
       <c r="D41" t="s">
-        <v>282</v>
+        <v>1277</v>
       </c>
       <c r="E41" t="s">
-        <v>283</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>221</v>
+        <v>1110</v>
       </c>
       <c r="B42" t="s">
-        <v>342</v>
+        <v>1106</v>
       </c>
       <c r="C42" t="s">
-        <v>679</v>
+        <v>1108</v>
       </c>
       <c r="D42" t="s">
-        <v>343</v>
+        <v>1111</v>
       </c>
       <c r="E42" t="s">
-        <v>344</v>
+        <v>1112</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -8533,19 +8707,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>248</v>
+        <v>1110</v>
       </c>
       <c r="B43" t="s">
-        <v>317</v>
+        <v>1107</v>
       </c>
       <c r="C43" t="s">
-        <v>318</v>
+        <v>1108</v>
       </c>
       <c r="D43" t="s">
-        <v>319</v>
+        <v>1111</v>
       </c>
       <c r="E43" t="s">
-        <v>320</v>
+        <v>1107</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -8553,59 +8727,53 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="B44" t="s">
-        <v>365</v>
+        <v>709</v>
       </c>
       <c r="C44" t="s">
-        <v>366</v>
+        <v>706</v>
       </c>
       <c r="D44" t="s">
-        <v>319</v>
+        <v>1117</v>
       </c>
       <c r="E44" t="s">
-        <v>320</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
+        <v>707</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>284</v>
+        <v>704</v>
       </c>
       <c r="B45" t="s">
-        <v>285</v>
+        <v>708</v>
       </c>
       <c r="C45" t="s">
-        <v>286</v>
+        <v>705</v>
       </c>
       <c r="D45" t="s">
-        <v>287</v>
+        <v>1117</v>
       </c>
       <c r="E45" t="s">
-        <v>288</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
+        <v>707</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>410</v>
+        <v>269</v>
       </c>
       <c r="B46" t="s">
-        <v>411</v>
+        <v>270</v>
       </c>
       <c r="C46" t="s">
-        <v>412</v>
+        <v>271</v>
       </c>
       <c r="D46" t="s">
-        <v>413</v>
+        <v>272</v>
       </c>
       <c r="E46" t="s">
-        <v>414</v>
+        <v>273</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -8613,19 +8781,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="B47" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="C47" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="D47" t="s">
-        <v>1119</v>
+        <v>272</v>
       </c>
       <c r="E47" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -8633,19 +8801,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="C48" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="D48" t="s">
-        <v>1119</v>
+        <v>272</v>
       </c>
       <c r="E48" t="s">
-        <v>1118</v>
+        <v>273</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -8653,19 +8821,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="B49" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="C49" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="D49" t="s">
-        <v>1119</v>
+        <v>272</v>
       </c>
       <c r="E49" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -8673,19 +8841,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="B50" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="C50" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="D50" t="s">
-        <v>1119</v>
+        <v>272</v>
       </c>
       <c r="E50" t="s">
-        <v>1118</v>
+        <v>273</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -8693,19 +8861,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>397</v>
+        <v>1169</v>
       </c>
       <c r="B51" t="s">
-        <v>398</v>
+        <v>1170</v>
       </c>
       <c r="C51" t="s">
-        <v>399</v>
+        <v>1171</v>
       </c>
       <c r="D51" t="s">
-        <v>1119</v>
+        <v>1172</v>
       </c>
       <c r="E51" t="s">
-        <v>330</v>
+        <v>1173</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -8713,19 +8881,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>400</v>
+        <v>178</v>
       </c>
       <c r="B52" t="s">
-        <v>401</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s">
-        <v>399</v>
+        <v>179</v>
       </c>
       <c r="D52" t="s">
-        <v>1119</v>
+        <v>181</v>
       </c>
       <c r="E52" t="s">
-        <v>1118</v>
+        <v>183</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -8733,19 +8901,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>422</v>
+        <v>348</v>
       </c>
       <c r="B53" t="s">
-        <v>423</v>
+        <v>349</v>
       </c>
       <c r="C53" t="s">
-        <v>424</v>
+        <v>350</v>
       </c>
       <c r="D53" t="s">
-        <v>1119</v>
+        <v>351</v>
       </c>
       <c r="E53" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -8753,19 +8921,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>422</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s">
-        <v>425</v>
+        <v>357</v>
       </c>
       <c r="C54" t="s">
-        <v>424</v>
+        <v>358</v>
       </c>
       <c r="D54" t="s">
-        <v>1119</v>
+        <v>351</v>
       </c>
       <c r="E54" t="s">
-        <v>1118</v>
+        <v>352</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -8773,19 +8941,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>431</v>
+        <v>304</v>
       </c>
       <c r="B55" t="s">
-        <v>432</v>
+        <v>305</v>
       </c>
       <c r="C55" t="s">
-        <v>433</v>
+        <v>306</v>
       </c>
       <c r="D55" t="s">
-        <v>1119</v>
+        <v>307</v>
       </c>
       <c r="E55" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -8793,19 +8961,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>431</v>
+        <v>279</v>
       </c>
       <c r="B56" t="s">
-        <v>434</v>
+        <v>280</v>
       </c>
       <c r="C56" t="s">
-        <v>433</v>
+        <v>281</v>
       </c>
       <c r="D56" t="s">
-        <v>1119</v>
+        <v>282</v>
       </c>
       <c r="E56" t="s">
-        <v>1118</v>
+        <v>283</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -8813,19 +8981,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1007</v>
+        <v>221</v>
       </c>
       <c r="B57" t="s">
-        <v>1002</v>
+        <v>342</v>
       </c>
       <c r="C57" t="s">
-        <v>999</v>
+        <v>679</v>
       </c>
       <c r="D57" t="s">
-        <v>997</v>
+        <v>343</v>
       </c>
       <c r="E57" t="s">
-        <v>998</v>
+        <v>344</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -8833,19 +9001,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="B58" t="s">
-        <v>995</v>
+        <v>317</v>
       </c>
       <c r="C58" t="s">
-        <v>996</v>
+        <v>318</v>
       </c>
       <c r="D58" t="s">
-        <v>997</v>
+        <v>319</v>
       </c>
       <c r="E58" t="s">
-        <v>998</v>
+        <v>320</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -8853,19 +9021,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1006</v>
+        <v>364</v>
       </c>
       <c r="B59" t="s">
-        <v>1003</v>
+        <v>365</v>
       </c>
       <c r="C59" t="s">
-        <v>1000</v>
+        <v>366</v>
       </c>
       <c r="D59" t="s">
-        <v>997</v>
+        <v>319</v>
       </c>
       <c r="E59" t="s">
-        <v>998</v>
+        <v>320</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -8873,19 +9041,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1005</v>
+        <v>284</v>
       </c>
       <c r="B60" t="s">
-        <v>1004</v>
+        <v>285</v>
       </c>
       <c r="C60" t="s">
-        <v>1001</v>
+        <v>286</v>
       </c>
       <c r="D60" t="s">
-        <v>997</v>
+        <v>287</v>
       </c>
       <c r="E60" t="s">
-        <v>998</v>
+        <v>288</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -8893,19 +9061,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1008</v>
+        <v>410</v>
       </c>
       <c r="B61" t="s">
-        <v>1015</v>
+        <v>411</v>
       </c>
       <c r="C61" t="s">
-        <v>1009</v>
+        <v>412</v>
       </c>
       <c r="D61" t="s">
-        <v>1010</v>
+        <v>413</v>
       </c>
       <c r="E61" t="s">
-        <v>1011</v>
+        <v>414</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -8913,19 +9081,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1012</v>
+        <v>332</v>
       </c>
       <c r="B62" t="s">
-        <v>1014</v>
+        <v>327</v>
       </c>
       <c r="C62" t="s">
-        <v>1013</v>
+        <v>329</v>
       </c>
       <c r="D62" t="s">
-        <v>1010</v>
+        <v>1119</v>
       </c>
       <c r="E62" t="s">
-        <v>1011</v>
+        <v>330</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -8933,19 +9101,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>173</v>
+        <v>332</v>
       </c>
       <c r="B63" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="C63" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="D63" t="s">
-        <v>267</v>
+        <v>1119</v>
       </c>
       <c r="E63" t="s">
-        <v>268</v>
+        <v>1118</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -8953,19 +9121,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="B64" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="C64" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="D64" t="s">
-        <v>267</v>
+        <v>1119</v>
       </c>
       <c r="E64" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -8973,19 +9141,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>274</v>
+        <v>390</v>
       </c>
       <c r="B65" t="s">
-        <v>275</v>
+        <v>393</v>
       </c>
       <c r="C65" t="s">
-        <v>276</v>
+        <v>392</v>
       </c>
       <c r="D65" t="s">
-        <v>277</v>
+        <v>1119</v>
       </c>
       <c r="E65" t="s">
-        <v>278</v>
+        <v>1118</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -8993,19 +9161,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>309</v>
+        <v>397</v>
       </c>
       <c r="B66" t="s">
-        <v>310</v>
+        <v>398</v>
       </c>
       <c r="C66" t="s">
-        <v>311</v>
+        <v>399</v>
       </c>
       <c r="D66" t="s">
-        <v>277</v>
+        <v>1119</v>
       </c>
       <c r="E66" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -9013,19 +9181,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="B67" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="C67" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="D67" t="s">
-        <v>277</v>
+        <v>1119</v>
       </c>
       <c r="E67" t="s">
-        <v>278</v>
+        <v>1118</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -9033,19 +9201,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="B68" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="C68" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="D68" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E68" t="s">
-        <v>404</v>
+        <v>330</v>
       </c>
       <c r="F68">
         <v>2</v>
@@ -9053,36 +9221,39 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>864</v>
+        <v>422</v>
       </c>
       <c r="B69" t="s">
-        <v>1113</v>
+        <v>425</v>
       </c>
       <c r="C69" t="s">
-        <v>1114</v>
+        <v>424</v>
       </c>
       <c r="D69" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="E69" t="s">
-        <v>1116</v>
+        <v>1118</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>157</v>
+        <v>431</v>
       </c>
       <c r="B70" t="s">
-        <v>686</v>
+        <v>432</v>
       </c>
       <c r="C70" t="s">
-        <v>687</v>
+        <v>433</v>
       </c>
       <c r="D70" t="s">
-        <v>687</v>
+        <v>1119</v>
       </c>
       <c r="E70" t="s">
-        <v>688</v>
+        <v>330</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -9090,19 +9261,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>693</v>
+        <v>431</v>
       </c>
       <c r="B71" t="s">
-        <v>694</v>
+        <v>434</v>
       </c>
       <c r="C71" t="s">
-        <v>695</v>
+        <v>433</v>
       </c>
       <c r="D71" t="s">
-        <v>696</v>
+        <v>1119</v>
       </c>
       <c r="E71" t="s">
-        <v>697</v>
+        <v>1118</v>
       </c>
       <c r="F71">
         <v>2</v>
@@ -9110,19 +9281,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>700</v>
+        <v>1007</v>
       </c>
       <c r="B72" t="s">
-        <v>698</v>
+        <v>1002</v>
       </c>
       <c r="C72" t="s">
-        <v>699</v>
+        <v>999</v>
       </c>
       <c r="D72" t="s">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="E72" t="s">
-        <v>697</v>
+        <v>998</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -9130,19 +9301,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>701</v>
+        <v>284</v>
       </c>
       <c r="B73" t="s">
-        <v>703</v>
+        <v>995</v>
       </c>
       <c r="C73" t="s">
-        <v>702</v>
+        <v>996</v>
       </c>
       <c r="D73" t="s">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="E73" t="s">
-        <v>697</v>
+        <v>998</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -9150,19 +9321,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>486</v>
+        <v>1006</v>
       </c>
       <c r="B74" t="s">
-        <v>487</v>
+        <v>1003</v>
       </c>
       <c r="C74" t="s">
-        <v>488</v>
+        <v>1000</v>
       </c>
       <c r="D74" t="s">
-        <v>489</v>
+        <v>997</v>
       </c>
       <c r="E74" t="s">
-        <v>490</v>
+        <v>998</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -9170,19 +9341,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>359</v>
+        <v>1005</v>
       </c>
       <c r="B75" t="s">
-        <v>360</v>
+        <v>1004</v>
       </c>
       <c r="C75" t="s">
-        <v>361</v>
+        <v>1001</v>
       </c>
       <c r="D75" t="s">
-        <v>362</v>
+        <v>997</v>
       </c>
       <c r="E75" t="s">
-        <v>363</v>
+        <v>998</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -9190,19 +9361,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>370</v>
+        <v>1008</v>
       </c>
       <c r="B76" t="s">
-        <v>371</v>
+        <v>1015</v>
       </c>
       <c r="C76" t="s">
-        <v>372</v>
+        <v>1009</v>
       </c>
       <c r="D76" t="s">
-        <v>362</v>
+        <v>1010</v>
       </c>
       <c r="E76" t="s">
-        <v>363</v>
+        <v>1011</v>
       </c>
       <c r="F76">
         <v>2</v>
@@ -9210,19 +9381,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>394</v>
+        <v>1012</v>
       </c>
       <c r="B77" t="s">
-        <v>395</v>
+        <v>1014</v>
       </c>
       <c r="C77" t="s">
-        <v>396</v>
+        <v>1013</v>
       </c>
       <c r="D77" t="s">
-        <v>362</v>
+        <v>1010</v>
       </c>
       <c r="E77" t="s">
-        <v>363</v>
+        <v>1011</v>
       </c>
       <c r="F77">
         <v>2</v>
@@ -9230,19 +9401,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>415</v>
+        <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>410</v>
+        <v>265</v>
       </c>
       <c r="C78" t="s">
-        <v>412</v>
+        <v>266</v>
       </c>
       <c r="D78" t="s">
-        <v>1121</v>
+        <v>267</v>
       </c>
       <c r="E78" t="s">
-        <v>413</v>
+        <v>268</v>
       </c>
       <c r="F78">
         <v>2</v>
@@ -9250,19 +9421,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>312</v>
+        <v>373</v>
       </c>
       <c r="B79" t="s">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="C79" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="D79" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="E79" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="F79">
         <v>2</v>
@@ -9270,19 +9441,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>274</v>
       </c>
       <c r="B80" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="C80" t="s">
-        <v>334</v>
+        <v>276</v>
       </c>
       <c r="D80" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="E80" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="F80">
         <v>2</v>
@@ -9290,19 +9461,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="B81" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="C81" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="D81" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="E81" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -9310,257 +9481,299 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1259</v>
+        <v>376</v>
       </c>
       <c r="B82" t="s">
-        <v>1244</v>
+        <v>377</v>
       </c>
       <c r="C82" t="s">
-        <v>1237</v>
+        <v>378</v>
       </c>
       <c r="D82" t="s">
-        <v>1264</v>
+        <v>277</v>
       </c>
       <c r="E82" t="s">
-        <v>1265</v>
+        <v>278</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>863</v>
+        <v>373</v>
       </c>
       <c r="B83" t="s">
-        <v>1243</v>
+        <v>402</v>
       </c>
       <c r="C83" t="s">
-        <v>1238</v>
+        <v>403</v>
       </c>
       <c r="D83" t="s">
-        <v>1264</v>
+        <v>1120</v>
       </c>
       <c r="E83" t="s">
-        <v>1265</v>
+        <v>404</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1262</v>
+        <v>864</v>
       </c>
       <c r="B84" t="s">
-        <v>1255</v>
+        <v>1113</v>
       </c>
       <c r="C84" t="s">
-        <v>1239</v>
+        <v>1114</v>
       </c>
       <c r="D84" t="s">
-        <v>1264</v>
+        <v>1115</v>
       </c>
       <c r="E84" t="s">
-        <v>1265</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1261</v>
+        <v>157</v>
       </c>
       <c r="B85" t="s">
-        <v>1248</v>
+        <v>686</v>
       </c>
       <c r="C85" t="s">
-        <v>1246</v>
+        <v>687</v>
       </c>
       <c r="D85" t="s">
-        <v>1264</v>
+        <v>687</v>
       </c>
       <c r="E85" t="s">
-        <v>1265</v>
+        <v>688</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1260</v>
+        <v>693</v>
       </c>
       <c r="B86" t="s">
-        <v>1249</v>
+        <v>694</v>
       </c>
       <c r="C86" t="s">
-        <v>1247</v>
+        <v>695</v>
       </c>
       <c r="D86" t="s">
-        <v>1264</v>
+        <v>696</v>
       </c>
       <c r="E86" t="s">
-        <v>1265</v>
+        <v>697</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1258</v>
+        <v>700</v>
       </c>
       <c r="B87" t="s">
-        <v>1245</v>
+        <v>698</v>
       </c>
       <c r="C87" t="s">
-        <v>1253</v>
+        <v>699</v>
       </c>
       <c r="D87" t="s">
-        <v>1264</v>
+        <v>696</v>
       </c>
       <c r="E87" t="s">
-        <v>1265</v>
+        <v>697</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>701</v>
       </c>
       <c r="B88" t="s">
-        <v>1263</v>
+        <v>703</v>
       </c>
       <c r="C88" t="s">
-        <v>1250</v>
+        <v>702</v>
       </c>
       <c r="D88" t="s">
-        <v>1264</v>
+        <v>696</v>
       </c>
       <c r="E88" t="s">
-        <v>1265</v>
+        <v>697</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1259</v>
+        <v>486</v>
       </c>
       <c r="B89" t="s">
-        <v>1240</v>
+        <v>487</v>
       </c>
       <c r="C89" t="s">
-        <v>1237</v>
+        <v>488</v>
       </c>
       <c r="D89" t="s">
-        <v>1264</v>
+        <v>489</v>
       </c>
       <c r="E89" t="s">
-        <v>1266</v>
+        <v>490</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>863</v>
+        <v>359</v>
       </c>
       <c r="B90" t="s">
-        <v>1241</v>
+        <v>360</v>
       </c>
       <c r="C90" t="s">
-        <v>1238</v>
+        <v>361</v>
       </c>
       <c r="D90" t="s">
-        <v>1264</v>
+        <v>362</v>
       </c>
       <c r="E90" t="s">
-        <v>1266</v>
+        <v>363</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1262</v>
+        <v>370</v>
       </c>
       <c r="B91" t="s">
-        <v>1242</v>
+        <v>371</v>
       </c>
       <c r="C91" t="s">
-        <v>1239</v>
+        <v>372</v>
       </c>
       <c r="D91" t="s">
-        <v>1264</v>
+        <v>362</v>
       </c>
       <c r="E91" t="s">
-        <v>1266</v>
+        <v>363</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1261</v>
+        <v>394</v>
       </c>
       <c r="B92" t="s">
-        <v>1251</v>
+        <v>395</v>
       </c>
       <c r="C92" t="s">
-        <v>1246</v>
+        <v>396</v>
       </c>
       <c r="D92" t="s">
-        <v>1264</v>
+        <v>362</v>
       </c>
       <c r="E92" t="s">
-        <v>1266</v>
+        <v>363</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1260</v>
+        <v>415</v>
       </c>
       <c r="B93" t="s">
-        <v>1252</v>
+        <v>410</v>
       </c>
       <c r="C93" t="s">
-        <v>1247</v>
+        <v>412</v>
       </c>
       <c r="D93" t="s">
-        <v>1264</v>
+        <v>1121</v>
       </c>
       <c r="E93" t="s">
-        <v>1266</v>
+        <v>413</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1258</v>
+        <v>312</v>
       </c>
       <c r="B94" t="s">
-        <v>1254</v>
+        <v>313</v>
       </c>
       <c r="C94" t="s">
-        <v>1253</v>
+        <v>314</v>
       </c>
       <c r="D94" t="s">
-        <v>1264</v>
+        <v>315</v>
       </c>
       <c r="E94" t="s">
-        <v>1266</v>
+        <v>316</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1275</v>
+        <v>60</v>
       </c>
       <c r="B95" t="s">
-        <v>1278</v>
+        <v>333</v>
       </c>
       <c r="C95" t="s">
-        <v>1276</v>
+        <v>334</v>
       </c>
       <c r="D95" t="s">
-        <v>1276</v>
+        <v>315</v>
       </c>
       <c r="E95" t="s">
-        <v>1279</v>
+        <v>316</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>29</v>
+        <v>335</v>
       </c>
       <c r="B96" t="s">
-        <v>1278</v>
+        <v>336</v>
       </c>
       <c r="C96" t="s">
-        <v>1276</v>
+        <v>337</v>
       </c>
       <c r="D96" t="s">
-        <v>1277</v>
+        <v>315</v>
       </c>
       <c r="E96" t="s">
-        <v>1279</v>
+        <v>316</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -9650,7 +9863,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F81">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F101">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
@@ -9663,10 +9876,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C51" sqref="C50:C51"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9741,19 +9954,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" t="s">
         <v>475</v>
       </c>
-      <c r="B4" t="s">
-        <v>476</v>
-      </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>479</v>
       </c>
       <c r="D4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E4" t="s">
         <v>477</v>
-      </c>
-      <c r="E4" t="s">
-        <v>478</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -9761,19 +9974,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>1021</v>
       </c>
       <c r="B5" t="s">
-        <v>443</v>
+        <v>1034</v>
       </c>
       <c r="C5" t="s">
-        <v>444</v>
+        <v>1021</v>
       </c>
       <c r="D5" t="s">
-        <v>445</v>
+        <v>1043</v>
       </c>
       <c r="E5" t="s">
-        <v>445</v>
+        <v>1022</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -9781,19 +9994,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>446</v>
+        <v>1023</v>
       </c>
       <c r="B6" t="s">
-        <v>447</v>
+        <v>1035</v>
       </c>
       <c r="C6" t="s">
-        <v>448</v>
+        <v>1024</v>
       </c>
       <c r="D6" t="s">
-        <v>449</v>
+        <v>1043</v>
       </c>
       <c r="E6" t="s">
-        <v>450</v>
+        <v>1022</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -9801,19 +10014,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>677</v>
+        <v>1026</v>
       </c>
       <c r="B7" t="s">
-        <v>480</v>
+        <v>1036</v>
       </c>
       <c r="C7" t="s">
-        <v>481</v>
+        <v>1025</v>
       </c>
       <c r="D7" t="s">
-        <v>449</v>
+        <v>1043</v>
       </c>
       <c r="E7" t="s">
-        <v>450</v>
+        <v>1022</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -9821,19 +10034,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>466</v>
+        <v>1027</v>
       </c>
       <c r="B8" t="s">
-        <v>467</v>
+        <v>1037</v>
       </c>
       <c r="C8" t="s">
-        <v>468</v>
+        <v>1028</v>
       </c>
       <c r="D8" t="s">
-        <v>469</v>
+        <v>1043</v>
       </c>
       <c r="E8" t="s">
-        <v>469</v>
+        <v>1022</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -9841,19 +10054,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>476</v>
+        <v>1029</v>
       </c>
       <c r="B9" t="s">
-        <v>475</v>
+        <v>1038</v>
       </c>
       <c r="C9" t="s">
-        <v>479</v>
+        <v>1030</v>
       </c>
       <c r="D9" t="s">
-        <v>478</v>
+        <v>1043</v>
       </c>
       <c r="E9" t="s">
-        <v>477</v>
+        <v>1022</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -9861,19 +10074,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>462</v>
+        <v>1031</v>
       </c>
       <c r="B10" t="s">
-        <v>463</v>
+        <v>1033</v>
       </c>
       <c r="C10" t="s">
-        <v>464</v>
+        <v>1032</v>
       </c>
       <c r="D10" t="s">
-        <v>465</v>
+        <v>1043</v>
       </c>
       <c r="E10" t="s">
-        <v>465</v>
+        <v>1022</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -9881,19 +10094,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="B11" t="s">
-        <v>471</v>
+        <v>1039</v>
       </c>
       <c r="C11" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D11" t="s">
-        <v>473</v>
+        <v>1043</v>
       </c>
       <c r="E11" t="s">
-        <v>474</v>
+        <v>1022</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -9904,16 +10117,16 @@
         <v>482</v>
       </c>
       <c r="B12" t="s">
-        <v>483</v>
+        <v>1039</v>
       </c>
       <c r="C12" t="s">
         <v>484</v>
       </c>
       <c r="D12" t="s">
-        <v>485</v>
+        <v>1043</v>
       </c>
       <c r="E12" t="s">
-        <v>485</v>
+        <v>1022</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -9921,19 +10134,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>458</v>
+        <v>1040</v>
       </c>
       <c r="B13" t="s">
-        <v>459</v>
+        <v>1041</v>
       </c>
       <c r="C13" t="s">
-        <v>460</v>
+        <v>1042</v>
       </c>
       <c r="D13" t="s">
-        <v>461</v>
+        <v>1043</v>
       </c>
       <c r="E13" t="s">
-        <v>461</v>
+        <v>1022</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -9941,19 +10154,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>226</v>
+        <v>442</v>
       </c>
       <c r="B14" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C14" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D14" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="E14" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -9961,19 +10174,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="B15" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="C15" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="D15" t="s">
-        <v>330</v>
+        <v>449</v>
       </c>
       <c r="E15" t="s">
-        <v>331</v>
+        <v>450</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -9981,19 +10194,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1016</v>
+        <v>677</v>
       </c>
       <c r="B16" t="s">
-        <v>1017</v>
+        <v>480</v>
       </c>
       <c r="C16" t="s">
-        <v>1019</v>
+        <v>481</v>
       </c>
       <c r="D16" t="s">
-        <v>1018</v>
+        <v>449</v>
       </c>
       <c r="E16" t="s">
-        <v>1020</v>
+        <v>450</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -10001,19 +10214,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1021</v>
+        <v>1069</v>
       </c>
       <c r="B17" t="s">
-        <v>1034</v>
+        <v>1072</v>
       </c>
       <c r="C17" t="s">
-        <v>1021</v>
+        <v>1070</v>
       </c>
       <c r="D17" t="s">
-        <v>1043</v>
+        <v>1071</v>
       </c>
       <c r="E17" t="s">
-        <v>1022</v>
+        <v>1073</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -10021,19 +10234,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1023</v>
+        <v>1240</v>
       </c>
       <c r="B18" t="s">
-        <v>1035</v>
+        <v>1244</v>
       </c>
       <c r="C18" t="s">
-        <v>1024</v>
+        <v>1237</v>
       </c>
       <c r="D18" t="s">
-        <v>1043</v>
+        <v>1256</v>
       </c>
       <c r="E18" t="s">
-        <v>1022</v>
+        <v>1257</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -10041,19 +10254,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1026</v>
+        <v>1241</v>
       </c>
       <c r="B19" t="s">
-        <v>1036</v>
+        <v>1243</v>
       </c>
       <c r="C19" t="s">
-        <v>1025</v>
+        <v>1238</v>
       </c>
       <c r="D19" t="s">
-        <v>1043</v>
+        <v>1256</v>
       </c>
       <c r="E19" t="s">
-        <v>1022</v>
+        <v>1257</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -10061,19 +10274,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1027</v>
+        <v>1242</v>
       </c>
       <c r="B20" t="s">
-        <v>1037</v>
+        <v>1255</v>
       </c>
       <c r="C20" t="s">
-        <v>1028</v>
+        <v>1239</v>
       </c>
       <c r="D20" t="s">
-        <v>1043</v>
+        <v>1256</v>
       </c>
       <c r="E20" t="s">
-        <v>1022</v>
+        <v>1257</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -10081,19 +10294,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1029</v>
+        <v>1251</v>
       </c>
       <c r="B21" t="s">
-        <v>1038</v>
+        <v>1248</v>
       </c>
       <c r="C21" t="s">
-        <v>1030</v>
+        <v>1246</v>
       </c>
       <c r="D21" t="s">
-        <v>1043</v>
+        <v>1256</v>
       </c>
       <c r="E21" t="s">
-        <v>1022</v>
+        <v>1257</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -10101,19 +10314,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1031</v>
+        <v>1252</v>
       </c>
       <c r="B22" t="s">
-        <v>1033</v>
+        <v>1249</v>
       </c>
       <c r="C22" t="s">
-        <v>1032</v>
+        <v>1247</v>
       </c>
       <c r="D22" t="s">
-        <v>1043</v>
+        <v>1256</v>
       </c>
       <c r="E22" t="s">
-        <v>1022</v>
+        <v>1257</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -10121,19 +10334,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>483</v>
+        <v>1254</v>
       </c>
       <c r="B23" t="s">
-        <v>1039</v>
+        <v>1245</v>
       </c>
       <c r="C23" t="s">
-        <v>484</v>
+        <v>1253</v>
       </c>
       <c r="D23" t="s">
-        <v>1043</v>
+        <v>1256</v>
       </c>
       <c r="E23" t="s">
-        <v>1022</v>
+        <v>1257</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -10141,19 +10354,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>482</v>
+        <v>342</v>
       </c>
       <c r="B24" t="s">
-        <v>1039</v>
+        <v>1075</v>
       </c>
       <c r="C24" t="s">
-        <v>484</v>
+        <v>1074</v>
       </c>
       <c r="D24" t="s">
-        <v>1043</v>
+        <v>1076</v>
       </c>
       <c r="E24" t="s">
-        <v>1022</v>
+        <v>1077</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -10161,19 +10374,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1040</v>
+        <v>1016</v>
       </c>
       <c r="B25" t="s">
-        <v>1041</v>
+        <v>1017</v>
       </c>
       <c r="C25" t="s">
-        <v>1042</v>
+        <v>1019</v>
       </c>
       <c r="D25" t="s">
-        <v>1043</v>
+        <v>1018</v>
       </c>
       <c r="E25" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -10181,19 +10394,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1044</v>
+        <v>1106</v>
       </c>
       <c r="B26" t="s">
-        <v>1052</v>
+        <v>1107</v>
       </c>
       <c r="C26" t="s">
-        <v>1045</v>
+        <v>1108</v>
       </c>
       <c r="D26" t="s">
-        <v>1050</v>
+        <v>1108</v>
       </c>
       <c r="E26" t="s">
-        <v>1051</v>
+        <v>1109</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -10201,19 +10414,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1048</v>
+        <v>1280</v>
       </c>
       <c r="B27" t="s">
-        <v>1053</v>
+        <v>1284</v>
       </c>
       <c r="C27" t="s">
-        <v>1046</v>
+        <v>1281</v>
       </c>
       <c r="D27" t="s">
-        <v>1050</v>
+        <v>1283</v>
       </c>
       <c r="E27" t="s">
-        <v>1051</v>
+        <v>1282</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -10221,19 +10434,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1049</v>
+        <v>466</v>
       </c>
       <c r="B28" t="s">
-        <v>1054</v>
+        <v>467</v>
       </c>
       <c r="C28" t="s">
-        <v>1047</v>
+        <v>468</v>
       </c>
       <c r="D28" t="s">
-        <v>1050</v>
+        <v>469</v>
       </c>
       <c r="E28" t="s">
-        <v>1051</v>
+        <v>469</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -10241,13 +10454,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="B29" t="s">
-        <v>534</v>
+        <v>1052</v>
       </c>
       <c r="C29" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
       <c r="D29" t="s">
         <v>1050</v>
@@ -10261,19 +10474,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="B30" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="C30" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="D30" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="E30" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -10281,19 +10494,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1069</v>
+        <v>1049</v>
       </c>
       <c r="B31" t="s">
-        <v>1072</v>
+        <v>1054</v>
       </c>
       <c r="C31" t="s">
-        <v>1070</v>
+        <v>1047</v>
       </c>
       <c r="D31" t="s">
-        <v>1071</v>
+        <v>1050</v>
       </c>
       <c r="E31" t="s">
-        <v>1073</v>
+        <v>1051</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -10301,19 +10514,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>342</v>
+        <v>1055</v>
       </c>
       <c r="B32" t="s">
-        <v>1075</v>
+        <v>534</v>
       </c>
       <c r="C32" t="s">
-        <v>1074</v>
+        <v>1056</v>
       </c>
       <c r="D32" t="s">
-        <v>1076</v>
+        <v>1050</v>
       </c>
       <c r="E32" t="s">
-        <v>1077</v>
+        <v>1051</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -10321,19 +10534,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1106</v>
+        <v>475</v>
       </c>
       <c r="B33" t="s">
-        <v>1107</v>
+        <v>476</v>
       </c>
       <c r="C33" t="s">
-        <v>1108</v>
+        <v>227</v>
       </c>
       <c r="D33" t="s">
-        <v>1108</v>
+        <v>477</v>
       </c>
       <c r="E33" t="s">
-        <v>1109</v>
+        <v>478</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -10341,19 +10554,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>327</v>
+        <v>462</v>
       </c>
       <c r="B34" t="s">
-        <v>328</v>
+        <v>463</v>
       </c>
       <c r="C34" t="s">
-        <v>329</v>
+        <v>464</v>
       </c>
       <c r="D34" t="s">
-        <v>330</v>
+        <v>465</v>
       </c>
       <c r="E34" t="s">
-        <v>331</v>
+        <v>465</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -10361,13 +10574,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="B35" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="C35" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="D35" t="s">
         <v>330</v>
@@ -10381,13 +10594,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>401</v>
+        <v>327</v>
       </c>
       <c r="B36" t="s">
-        <v>398</v>
+        <v>328</v>
       </c>
       <c r="C36" t="s">
-        <v>399</v>
+        <v>329</v>
       </c>
       <c r="D36" t="s">
         <v>330</v>
@@ -10401,13 +10614,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="B37" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="C37" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="D37" t="s">
         <v>330</v>
@@ -10421,19 +10634,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1124</v>
+        <v>401</v>
       </c>
       <c r="B38" t="s">
-        <v>1130</v>
+        <v>398</v>
       </c>
       <c r="C38" t="s">
-        <v>1127</v>
+        <v>399</v>
       </c>
       <c r="D38" t="s">
-        <v>1128</v>
+        <v>330</v>
       </c>
       <c r="E38" t="s">
-        <v>1129</v>
+        <v>331</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -10441,19 +10654,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1125</v>
+        <v>423</v>
       </c>
       <c r="B39" t="s">
-        <v>1131</v>
+        <v>425</v>
       </c>
       <c r="C39" t="s">
-        <v>1126</v>
+        <v>424</v>
       </c>
       <c r="D39" t="s">
-        <v>1128</v>
+        <v>330</v>
       </c>
       <c r="E39" t="s">
-        <v>1129</v>
+        <v>331</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -10461,144 +10674,425 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1240</v>
+        <v>1057</v>
       </c>
       <c r="B40" t="s">
-        <v>1244</v>
+        <v>1061</v>
       </c>
       <c r="C40" t="s">
-        <v>1237</v>
+        <v>1058</v>
       </c>
       <c r="D40" t="s">
-        <v>1256</v>
+        <v>1059</v>
       </c>
       <c r="E40" t="s">
-        <v>1257</v>
+        <v>1060</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1241</v>
+        <v>482</v>
       </c>
       <c r="B41" t="s">
-        <v>1243</v>
+        <v>483</v>
       </c>
       <c r="C41" t="s">
-        <v>1238</v>
+        <v>484</v>
       </c>
       <c r="D41" t="s">
-        <v>1256</v>
+        <v>485</v>
       </c>
       <c r="E41" t="s">
-        <v>1257</v>
+        <v>485</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1242</v>
+        <v>458</v>
       </c>
       <c r="B42" t="s">
-        <v>1255</v>
+        <v>459</v>
       </c>
       <c r="C42" t="s">
-        <v>1239</v>
+        <v>460</v>
       </c>
       <c r="D42" t="s">
-        <v>1256</v>
+        <v>461</v>
       </c>
       <c r="E42" t="s">
-        <v>1257</v>
+        <v>461</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1251</v>
+        <v>1124</v>
       </c>
       <c r="B43" t="s">
-        <v>1248</v>
+        <v>1130</v>
       </c>
       <c r="C43" t="s">
-        <v>1246</v>
+        <v>1127</v>
       </c>
       <c r="D43" t="s">
-        <v>1256</v>
+        <v>1128</v>
       </c>
       <c r="E43" t="s">
-        <v>1257</v>
+        <v>1129</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1252</v>
+        <v>1125</v>
       </c>
       <c r="B44" t="s">
-        <v>1249</v>
+        <v>1131</v>
       </c>
       <c r="C44" t="s">
-        <v>1247</v>
+        <v>1126</v>
       </c>
       <c r="D44" t="s">
-        <v>1256</v>
+        <v>1128</v>
       </c>
       <c r="E44" t="s">
-        <v>1257</v>
+        <v>1129</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1254</v>
+        <v>226</v>
       </c>
       <c r="B45" t="s">
-        <v>1245</v>
+        <v>455</v>
       </c>
       <c r="C45" t="s">
-        <v>1253</v>
+        <v>456</v>
       </c>
       <c r="D45" t="s">
-        <v>1256</v>
+        <v>457</v>
       </c>
       <c r="E45" t="s">
-        <v>1257</v>
+        <v>457</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1280</v>
+        <v>1296</v>
       </c>
       <c r="B46" t="s">
-        <v>1284</v>
+        <v>1297</v>
       </c>
       <c r="C46" t="s">
-        <v>1281</v>
+        <v>1298</v>
       </c>
       <c r="D46" t="s">
-        <v>1283</v>
+        <v>1300</v>
       </c>
       <c r="E46" t="s">
-        <v>1282</v>
+        <v>1299</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1296</v>
+        <v>470</v>
       </c>
       <c r="B47" t="s">
-        <v>1297</v>
+        <v>471</v>
       </c>
       <c r="C47" t="s">
-        <v>1298</v>
+        <v>472</v>
       </c>
       <c r="D47" t="s">
-        <v>1300</v>
+        <v>473</v>
       </c>
       <c r="E47" t="s">
-        <v>1299</v>
+        <v>474</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B48" t="s">
+        <v>790</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>365</v>
+      </c>
+      <c r="B53" t="s">
+        <v>917</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>365</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>917</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1355</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F21">
-      <sortCondition ref="E1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F47">
+      <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10612,7 +11106,7 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
@@ -12360,7 +12854,7 @@
   </sheetPr>
   <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -15744,4 +16238,186 @@
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB0F0B1-25EF-4C5C-BE22-BC0F519C1AB3}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>